--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC17-EQUIPO 3.5  MULTIAXIAL.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NBC17-EQUIPO 3.5  MULTIAXIAL.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4764CB6E-73F3-44F0-BD7B-51813D41DDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CAD5A5-E979-49F8-AF2F-9B350E122375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12285" yWindow="240" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EQUIPO 3.5" sheetId="6" r:id="rId1"/>
@@ -19,17 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -845,11 +834,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1243,8 +1232,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1294,7 +1283,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1373,6 +1362,81 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1396,81 +1460,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1841,8 +1830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1867,28 +1856,28 @@
     <row r="2" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="51"/>
       <c r="B2" s="52"/>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68" t="s">
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="69"/>
+      <c r="G2" s="71"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="53"/>
       <c r="B3" s="54"/>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="73" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="25"/>
@@ -1904,18 +1893,18 @@
         <v>32</v>
       </c>
       <c r="B5" s="21"/>
-      <c r="C5" s="63">
+      <c r="C5" s="77">
         <f ca="1">NOW()</f>
-        <v>45392.673175578704</v>
-      </c>
-      <c r="D5" s="63"/>
+        <v>45401.787524189815</v>
+      </c>
+      <c r="D5" s="77"/>
       <c r="E5" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="78">
         <v>20230200001</v>
       </c>
-      <c r="G5" s="76"/>
+      <c r="G5" s="79"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="9"/>
@@ -1929,13 +1918,13 @@
         <v>34</v>
       </c>
       <c r="B7" s="21"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="77"/>
-      <c r="G7" s="78"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="9"/>
@@ -1946,19 +1935,19 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="62" t="s">
         <v>230</v>
       </c>
-      <c r="G9" s="80"/>
+      <c r="G9" s="63"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="9"/>
@@ -1973,15 +1962,15 @@
         <v>36</v>
       </c>
       <c r="B11" s="21"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="83"/>
+      <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="9"/>
@@ -1996,17 +1985,17 @@
         <v>38</v>
       </c>
       <c r="B13" s="21"/>
-      <c r="C13" s="63">
+      <c r="C13" s="77">
         <v>44972.694506481479</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="59"/>
+      <c r="G13" s="84"/>
     </row>
     <row r="14" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="9"/>
@@ -2021,8 +2010,8 @@
         <v>40</v>
       </c>
       <c r="B15" s="21"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="11"/>
@@ -2040,13 +2029,13 @@
         <v>41</v>
       </c>
       <c r="B17" s="21"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="59"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
     </row>
     <row r="18" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="9"/>
@@ -2062,8 +2051,8 @@
         <v>233</v>
       </c>
       <c r="B19" s="21"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="12"/>
@@ -2078,13 +2067,13 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="81"/>
     </row>
     <row r="22" spans="1:7" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="15" t="s">
@@ -3535,10 +3524,10 @@
       <c r="B96" s="45"/>
       <c r="C96" s="46"/>
       <c r="D96" s="7"/>
-      <c r="F96" s="84" t="s">
+      <c r="F96" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="G96" s="85">
+      <c r="G96" s="56">
         <f>SUM(G45:G93)</f>
         <v>0</v>
       </c>
@@ -3548,10 +3537,10 @@
       <c r="B97" s="34"/>
       <c r="C97" s="36"/>
       <c r="D97" s="7"/>
-      <c r="F97" s="86" t="s">
+      <c r="F97" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="G97" s="87">
+      <c r="G97" s="58">
         <f>+G96*0.15</f>
         <v>0</v>
       </c>
@@ -3561,10 +3550,10 @@
       <c r="B98" s="34"/>
       <c r="C98" s="36"/>
       <c r="D98" s="7"/>
-      <c r="F98" s="86" t="s">
+      <c r="F98" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="G98" s="87">
+      <c r="G98" s="58">
         <f>+G96+G97</f>
         <v>0</v>
       </c>
@@ -3948,18 +3937,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="F17:G17"/>
@@ -3968,6 +3945,18 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
